--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2564740.832807513</v>
+        <v>-2567652.419432572</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
-        <v>224.9377818104189</v>
+        <v>227.9187527607133</v>
       </c>
       <c r="I2" t="n">
-        <v>7.341403694907506</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,13 +789,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>65.41525503773637</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>33.83159911558489</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>107.9238132154125</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>116.8302600053036</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>219.4450108596164</v>
+      </c>
+      <c r="D5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>127.4695742187183</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>16.29980384969992</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9593211585619904</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>27.8102286882941</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>252.137643323828</v>
+      </c>
+      <c r="W7" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.92774155194383</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>80.36135769947626</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>132.1123490750253</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0756532307812</v>
+        <v>188.1453117997916</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>102.1233775514217</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1218,16 +1218,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5377351249805</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>25.39282942385017</v>
+        <v>94.79539139358999</v>
       </c>
       <c r="I9" t="n">
         <v>27.2238740790192</v>
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>138.1415617533797</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.8861598652889</v>
+        <v>6.71722716908363</v>
       </c>
       <c r="U9" t="n">
         <v>225.8225806310913</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4770723577568</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>109.222627509243</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.6333278520117</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>99.86170909062842</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>152.9523301999108</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1421,10 +1421,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>98.00068573248018</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1579,13 +1579,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.0228155762088</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>55.83068150864332</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0.2811815126421274</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>134.0367616438387</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8253826161906772</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>80.11763046889868</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2321,13 +2321,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>147.053668106558</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.962173606588</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308933</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.239490800229</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652574</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808189</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2849,13 +2849,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.962173606588</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308914</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.239490800229</v>
+        <v>141.2394908002295</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652574</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808383</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541838</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652545</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.010065354184</v>
+        <v>116.0100653541839</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.4778634388467</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="C2" t="n">
-        <v>788.4778634388467</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="D2" t="n">
-        <v>522.1002068716687</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="E2" t="n">
-        <v>255.7225503044907</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="F2" t="n">
-        <v>255.7225503044907</v>
+        <v>634.167062227511</v>
       </c>
       <c r="G2" t="n">
-        <v>255.7225503044907</v>
+        <v>367.789405660333</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51266968790586</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>624.3310045827856</v>
+        <v>317.7312518565088</v>
       </c>
       <c r="C3" t="n">
-        <v>449.8779753016586</v>
+        <v>317.7312518565088</v>
       </c>
       <c r="D3" t="n">
-        <v>449.8779753016586</v>
+        <v>317.7312518565088</v>
       </c>
       <c r="E3" t="n">
-        <v>449.8779753016586</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004802</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4437,22 +4437,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>988.7795048163919</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428383</v>
+        <v>760.6436588532054</v>
       </c>
       <c r="V3" t="n">
-        <v>792.5463416028535</v>
+        <v>525.4915506214627</v>
       </c>
       <c r="W3" t="n">
-        <v>792.5463416028535</v>
+        <v>525.4915506214627</v>
       </c>
       <c r="X3" t="n">
-        <v>792.5463416028535</v>
+        <v>525.4915506214627</v>
       </c>
       <c r="Y3" t="n">
-        <v>792.5463416028535</v>
+        <v>317.7312518565088</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.1814809021206</v>
+        <v>488.0630263227563</v>
       </c>
       <c r="C4" t="n">
-        <v>572.1814809021206</v>
+        <v>319.1268433948493</v>
       </c>
       <c r="D4" t="n">
-        <v>422.0648414897848</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E4" t="n">
-        <v>313.0508887469439</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>313.0508887469439</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>936.8451563643038</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>936.8451563643038</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>936.8451563643038</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001379</v>
+        <v>936.8451563643038</v>
       </c>
       <c r="W4" t="n">
-        <v>800.1710318001379</v>
+        <v>936.8451563643038</v>
       </c>
       <c r="X4" t="n">
-        <v>572.1814809021206</v>
+        <v>708.8556054662864</v>
       </c>
       <c r="Y4" t="n">
-        <v>572.1814809021206</v>
+        <v>488.0630263227563</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.3840804899463</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C5" t="n">
-        <v>307.3840804899463</v>
+        <v>833.1938928750989</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899463</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E5" t="n">
-        <v>307.3840804899463</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F5" t="n">
-        <v>300.4385797407429</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4568,19 +4568,19 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4604,13 +4604,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>573.7617370571243</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>573.7617370571243</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>256.3800466016571</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>81.9270173205301</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>81.9270173205301</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>81.9270173205301</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>81.9270173205301</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4653,13 +4653,13 @@
         <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>478.4519222278687</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>659.7474918534679</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>424.5953836217251</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W6" t="n">
-        <v>424.5953836217251</v>
+        <v>565.4660550460803</v>
       </c>
       <c r="X6" t="n">
-        <v>424.5953836217251</v>
+        <v>357.6145548405475</v>
       </c>
       <c r="Y6" t="n">
-        <v>424.5953836217251</v>
+        <v>149.8542560755936</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.2267481335265</v>
+        <v>505.7022351437738</v>
       </c>
       <c r="C7" t="n">
-        <v>37.29056520561957</v>
+        <v>505.7022351437738</v>
       </c>
       <c r="D7" t="n">
-        <v>37.29056520561957</v>
+        <v>505.7022351437738</v>
       </c>
       <c r="E7" t="n">
-        <v>37.29056520561957</v>
+        <v>505.7022351437738</v>
       </c>
       <c r="F7" t="n">
-        <v>37.29056520561957</v>
+        <v>358.8122876458634</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="H7" t="n">
         <v>36.32155393434483</v>
@@ -4726,10 +4726,10 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375337</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>1026.764379916839</v>
       </c>
       <c r="T7" t="n">
-        <v>700.5939555987218</v>
+        <v>1026.764379916839</v>
       </c>
       <c r="U7" t="n">
-        <v>434.2162990315438</v>
+        <v>1026.764379916839</v>
       </c>
       <c r="V7" t="n">
-        <v>434.2162990315438</v>
+        <v>772.0798917109518</v>
       </c>
       <c r="W7" t="n">
-        <v>434.2162990315438</v>
+        <v>505.7022351437738</v>
       </c>
       <c r="X7" t="n">
-        <v>206.2267481335265</v>
+        <v>505.7022351437738</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.2267481335265</v>
+        <v>505.7022351437738</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>869.4463864455122</v>
+        <v>465.0854863534246</v>
       </c>
       <c r="C8" t="n">
-        <v>500.4838695051005</v>
+        <v>465.0854863534246</v>
       </c>
       <c r="D8" t="n">
-        <v>142.2181708983501</v>
+        <v>465.0854863534246</v>
       </c>
       <c r="E8" t="n">
-        <v>142.2181708983501</v>
+        <v>465.0854863534246</v>
       </c>
       <c r="F8" t="n">
-        <v>135.2726701491466</v>
+        <v>54.09958156381705</v>
       </c>
       <c r="G8" t="n">
-        <v>123.2244463593043</v>
+        <v>42.0513577739748</v>
       </c>
       <c r="H8" t="n">
-        <v>123.2244463593043</v>
+        <v>42.0513577739748</v>
       </c>
       <c r="I8" t="n">
-        <v>42.05135777397479</v>
+        <v>42.0513577739748</v>
       </c>
       <c r="J8" t="n">
-        <v>146.3999902871474</v>
+        <v>146.3999902871475</v>
       </c>
       <c r="K8" t="n">
-        <v>353.5300590778744</v>
+        <v>353.5300590778745</v>
       </c>
       <c r="L8" t="n">
         <v>647.3949869642729</v>
@@ -4823,31 +4823,31 @@
         <v>1961.833542307579</v>
       </c>
       <c r="Q8" t="n">
-        <v>2102.567888698739</v>
+        <v>2102.56788869874</v>
       </c>
       <c r="R8" t="n">
-        <v>2102.567888698739</v>
+        <v>2102.56788869874</v>
       </c>
       <c r="S8" t="n">
-        <v>1969.121071451239</v>
+        <v>2102.56788869874</v>
       </c>
       <c r="T8" t="n">
-        <v>1969.121071451239</v>
+        <v>2102.56788869874</v>
       </c>
       <c r="U8" t="n">
-        <v>1715.509300511056</v>
+        <v>1912.522119204001</v>
       </c>
       <c r="V8" t="n">
-        <v>1715.509300511056</v>
+        <v>1581.45923186043</v>
       </c>
       <c r="W8" t="n">
-        <v>1362.740645240942</v>
+        <v>1228.690576590316</v>
       </c>
       <c r="X8" t="n">
-        <v>1259.585718421324</v>
+        <v>855.2248183292363</v>
       </c>
       <c r="Y8" t="n">
-        <v>869.4463864455122</v>
+        <v>465.0854863534246</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>702.0283432024478</v>
+        <v>794.4625930005894</v>
       </c>
       <c r="C9" t="n">
-        <v>527.5753139213208</v>
+        <v>620.0095637194624</v>
       </c>
       <c r="D9" t="n">
-        <v>378.6409042600695</v>
+        <v>471.0751540582112</v>
       </c>
       <c r="E9" t="n">
-        <v>378.6409042600695</v>
+        <v>311.8376990527557</v>
       </c>
       <c r="F9" t="n">
-        <v>232.1063462869545</v>
+        <v>165.3031410796407</v>
       </c>
       <c r="G9" t="n">
-        <v>95.1995431304085</v>
+        <v>165.3031410796407</v>
       </c>
       <c r="H9" t="n">
-        <v>69.55022048005479</v>
+        <v>69.5502204800548</v>
       </c>
       <c r="I9" t="n">
-        <v>42.05135777397479</v>
+        <v>42.0513577739748</v>
       </c>
       <c r="J9" t="n">
-        <v>85.38284148212989</v>
+        <v>210.2129664691347</v>
       </c>
       <c r="K9" t="n">
-        <v>413.8753274991655</v>
+        <v>362.4281985884767</v>
       </c>
       <c r="L9" t="n">
-        <v>664.8700327651387</v>
+        <v>664.8700327651391</v>
       </c>
       <c r="M9" t="n">
-        <v>977.1258833273719</v>
+        <v>977.1258833273723</v>
       </c>
       <c r="N9" t="n">
         <v>1312.054862023453</v>
@@ -4899,34 +4899,34 @@
         <v>1596.229648644459</v>
       </c>
       <c r="P9" t="n">
-        <v>1804.971901956277</v>
+        <v>1804.971901956278</v>
       </c>
       <c r="Q9" t="n">
-        <v>2102.567888698739</v>
+        <v>2102.56788869874</v>
       </c>
       <c r="R9" t="n">
-        <v>2102.567888698739</v>
+        <v>2102.56788869874</v>
       </c>
       <c r="S9" t="n">
-        <v>1963.030957634719</v>
+        <v>2102.56788869874</v>
       </c>
       <c r="T9" t="n">
-        <v>1768.196452720286</v>
+        <v>2095.78281075017</v>
       </c>
       <c r="U9" t="n">
-        <v>1540.092835921204</v>
+        <v>1867.679193951088</v>
       </c>
       <c r="V9" t="n">
-        <v>1540.092835921204</v>
+        <v>1632.527085719346</v>
       </c>
       <c r="W9" t="n">
-        <v>1285.855479193003</v>
+        <v>1378.289728991144</v>
       </c>
       <c r="X9" t="n">
-        <v>1078.00397898747</v>
+        <v>1170.438228785611</v>
       </c>
       <c r="Y9" t="n">
-        <v>870.2436802225159</v>
+        <v>962.6779300206574</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>358.9006342842748</v>
+        <v>505.0130578015073</v>
       </c>
       <c r="C10" t="n">
-        <v>189.9644513563679</v>
+        <v>505.0130578015073</v>
       </c>
       <c r="D10" t="n">
-        <v>189.9644513563679</v>
+        <v>505.0130578015073</v>
       </c>
       <c r="E10" t="n">
-        <v>42.05135777397479</v>
+        <v>357.0999642191142</v>
       </c>
       <c r="F10" t="n">
-        <v>42.05135777397479</v>
+        <v>210.2100167212039</v>
       </c>
       <c r="G10" t="n">
-        <v>42.05135777397479</v>
+        <v>42.0513577739748</v>
       </c>
       <c r="H10" t="n">
-        <v>42.05135777397479</v>
+        <v>42.0513577739748</v>
       </c>
       <c r="I10" t="n">
-        <v>42.05135777397479</v>
+        <v>42.0513577739748</v>
       </c>
       <c r="J10" t="n">
-        <v>55.58866215860132</v>
+        <v>55.58866215860135</v>
       </c>
       <c r="K10" t="n">
         <v>207.6714484717172</v>
       </c>
       <c r="L10" t="n">
-        <v>457.8114892847495</v>
+        <v>457.8114892847496</v>
       </c>
       <c r="M10" t="n">
-        <v>731.9382131949073</v>
+        <v>731.9382131949076</v>
       </c>
       <c r="N10" t="n">
-        <v>1004.981432735689</v>
+        <v>1004.98143273569</v>
       </c>
       <c r="O10" t="n">
         <v>1241.164743792816</v>
@@ -4981,31 +4981,31 @@
         <v>1419.739686101111</v>
       </c>
       <c r="Q10" t="n">
-        <v>1459.940639733125</v>
+        <v>1459.940639733126</v>
       </c>
       <c r="R10" t="n">
-        <v>1459.940639733125</v>
+        <v>1349.614753360153</v>
       </c>
       <c r="S10" t="n">
-        <v>1459.940639733125</v>
+        <v>1149.985129267212</v>
       </c>
       <c r="T10" t="n">
-        <v>1459.940639733125</v>
+        <v>1149.985129267212</v>
       </c>
       <c r="U10" t="n">
-        <v>1459.940639733125</v>
+        <v>1049.114716044355</v>
       </c>
       <c r="V10" t="n">
-        <v>1205.256151527238</v>
+        <v>794.430227838468</v>
       </c>
       <c r="W10" t="n">
-        <v>915.8389814902778</v>
+        <v>505.0130578015073</v>
       </c>
       <c r="X10" t="n">
-        <v>761.3416782580447</v>
+        <v>505.0130578015073</v>
       </c>
       <c r="Y10" t="n">
-        <v>540.5490991145145</v>
+        <v>505.0130578015073</v>
       </c>
     </row>
     <row r="11">
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>564.5188827892232</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>416.6057892068301</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>416.6057892068301</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>986.1256051221279</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.8125159357153</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>94.10068477791341</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W16" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X16" t="n">
-        <v>1388.566649095898</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y16" t="n">
-        <v>1167.774069952368</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="17">
@@ -5498,37 +5498,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,7 +5540,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,7 +5549,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.129363765926</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2263.274529420831</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2043.673064443772</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.597837787969</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.913349582082</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.496179545122</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5066286471044</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6227,16 +6227,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319338</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656832</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150038</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942671</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,10 +6497,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6680,22 +6680,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6786,19 +6786,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580111</v>
@@ -6850,10 +6850,10 @@
         <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6862,7 +6862,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6901,7 +6901,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7023,19 +7023,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942654</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,10 +7108,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7126,16 +7126,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7260,16 +7260,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7357,25 +7357,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7500,13 +7500,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,7 +7597,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7734,10 +7734,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069063</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8143,7 +8143,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094455</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8301,16 +8301,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>45.78351343583191</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>51.53815565544045</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>3.580947641321444</v>
+        <v>3.580947641321416</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>178.0578322198925</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>51.96679687948381</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>33.56261566051985</v>
+        <v>33.56261566051984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917676</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>53.71512056354955</v>
       </c>
       <c r="H2" t="n">
-        <v>89.25585081884908</v>
+        <v>86.27487986855471</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -22604,7 +22604,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>67.52345255978867</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>0.5618377758859765</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>111.4161395899845</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>80.98465480592341</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>152.4862366927523</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.54986409393101</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>137.2878198583896</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1401477.043940446</v>
+        <v>1401477.043940445</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1401477.043940445</v>
+        <v>1401477.043940446</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1401477.043940446</v>
+        <v>1401477.043940445</v>
       </c>
     </row>
     <row r="10">
@@ -26323,13 +26323,13 @@
         <v>20178.66499225016</v>
       </c>
       <c r="F2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="G2" t="n">
         <v>20178.66499225016</v>
       </c>
       <c r="H2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="I2" t="n">
         <v>20178.66499225015</v>
@@ -26338,22 +26338,22 @@
         <v>20526.04424660709</v>
       </c>
       <c r="K2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="L2" t="n">
         <v>20526.0442466071</v>
       </c>
-      <c r="L2" t="n">
-        <v>20526.04424660709</v>
-      </c>
       <c r="M2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="N2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>274462.868673467</v>
+        <v>274462.8686734671</v>
       </c>
       <c r="E3" t="n">
-        <v>617754.2692755857</v>
+        <v>617754.2692755854</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>5.145141455743994e-11</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>88426.87241274588</v>
+        <v>88426.8724127458</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>66291.64277620197</v>
+        <v>66291.64277620202</v>
       </c>
       <c r="M3" t="n">
-        <v>161251.5141937646</v>
+        <v>161251.5141937647</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363184</v>
+        <v>19427.71799363169</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151366.7431037779</v>
+        <v>151366.743103778</v>
       </c>
       <c r="C4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
         <v>171144.1979807755</v>
@@ -26427,37 +26427,37 @@
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
+        <v>9947.144321768912</v>
+      </c>
+      <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="G4" t="n">
-        <v>9947.144321768939</v>
-      </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768954</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.144321768938</v>
       </c>
       <c r="J4" t="n">
-        <v>17938.00358486241</v>
+        <v>17938.00358486239</v>
       </c>
       <c r="K4" t="n">
-        <v>17938.00358486241</v>
+        <v>17938.00358486237</v>
       </c>
       <c r="L4" t="n">
-        <v>17938.00358486239</v>
+        <v>17938.00358486237</v>
       </c>
       <c r="M4" t="n">
+        <v>17938.00358486237</v>
+      </c>
+      <c r="N4" t="n">
         <v>17938.00358486238</v>
       </c>
-      <c r="N4" t="n">
-        <v>17938.00358486242</v>
-      </c>
       <c r="O4" t="n">
-        <v>17938.00358486238</v>
+        <v>17938.00358486237</v>
       </c>
       <c r="P4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.0035848624</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>83888.39126761604</v>
+        <v>83888.39126761605</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-878272.071318519</v>
+        <v>-878701.6301851078</v>
       </c>
       <c r="C6" t="n">
-        <v>-291959.7252883635</v>
+        <v>-291959.7252883636</v>
       </c>
       <c r="D6" t="n">
-        <v>-508969.4136752515</v>
+        <v>-508969.4136752516</v>
       </c>
       <c r="E6" t="n">
-        <v>-708645.2784290115</v>
+        <v>-708680.0163544469</v>
       </c>
       <c r="F6" t="n">
-        <v>-90891.00915342585</v>
+        <v>-90925.74707886156</v>
       </c>
       <c r="G6" t="n">
-        <v>-90891.00915342594</v>
+        <v>-90925.74707886155</v>
       </c>
       <c r="H6" t="n">
-        <v>-90891.00915342582</v>
+        <v>-90925.74707886166</v>
       </c>
       <c r="I6" t="n">
-        <v>-90891.00915342588</v>
+        <v>-90925.74707886159</v>
       </c>
       <c r="J6" t="n">
-        <v>-189002.9476049166</v>
+        <v>-189002.9476049165</v>
       </c>
       <c r="K6" t="n">
         <v>-100576.0751921707</v>
@@ -26558,7 +26558,7 @@
         <v>-100576.0751921707</v>
       </c>
       <c r="O6" t="n">
-        <v>-120003.7931858025</v>
+        <v>-120003.7931858024</v>
       </c>
       <c r="P6" t="n">
         <v>-100576.0751921707</v>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>6.431426819679993e-14</v>
       </c>
-      <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
-      </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203976</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>24.28464749203972</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203976</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>839.5302458438167</v>
+        <v>839.5302458438168</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>525.6419721746848</v>
+        <v>525.641972174685</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26920,16 +26920,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>6.431426819679993e-14</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920398</v>
+        <v>24.28464749203961</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>225.4752320743385</v>
+        <v>225.4752320743386</v>
       </c>
       <c r="E3" t="n">
-        <v>528.445254497857</v>
+        <v>528.4452544978569</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>261.9280921731787</v>
+        <v>261.9280921731789</v>
       </c>
       <c r="E4" t="n">
-        <v>647.0663159249635</v>
+        <v>647.0663159249634</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>261.9280921731787</v>
+        <v>261.9280921731789</v>
       </c>
       <c r="M4" t="n">
-        <v>647.0663159249635</v>
+        <v>647.0663159249634</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>6.431426819679993e-14</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>261.9280921731787</v>
+        <v>261.9280921731789</v>
       </c>
       <c r="M4" t="n">
-        <v>647.0663159249635</v>
+        <v>647.0663159249634</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>95.40517408065431</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>107.9652158519896</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>129.4257325471404</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>198.9689880338404</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>38.51014943115663</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>87.88890423829017</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27594,7 +27594,7 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>145.8278809113911</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>157.1621355605639</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>39.06360943114899</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>119.7229157367235</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,13 +27783,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.9243458799846</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>176.9089355552996</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>304.9106247077351</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>80.36135769947623</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>132.1123490750253</v>
       </c>
       <c r="T8" t="n">
         <v>208.3218047352618</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>62.93034143098956</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>267.6077231270473</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27938,16 +27938,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5377351249805</v>
       </c>
       <c r="H9" t="n">
-        <v>69.40256196973982</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27980,16 +27980,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>138.1415617533797</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.1689326962053</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4770723577568</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.7671629921076</v>
       </c>
       <c r="I10" t="n">
-        <v>109.9231625788756</v>
+        <v>109.9231625788755</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>109.222627509243</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.6333278520117</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>221.4770776980095</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2364526109981</v>
+        <v>186.3747435203696</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>72.75732518912639</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29041,19 +29041,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>5.115907697472721e-13</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,13 +29086,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29284,13 +29284,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="29">
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,22 +31513,22 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.37499596319122</v>
+        <v>3.374995963191221</v>
       </c>
       <c r="H8" t="n">
-        <v>34.56417740803209</v>
+        <v>34.5641774080321</v>
       </c>
       <c r="I8" t="n">
         <v>130.1145318709297</v>
       </c>
       <c r="J8" t="n">
-        <v>286.4485636309011</v>
+        <v>286.4485636309012</v>
       </c>
       <c r="K8" t="n">
         <v>429.3121427527856</v>
       </c>
       <c r="L8" t="n">
-        <v>532.5996754612989</v>
+        <v>532.5996754612991</v>
       </c>
       <c r="M8" t="n">
         <v>592.6197599217008</v>
@@ -31537,10 +31537,10 @@
         <v>602.2089672021179</v>
       </c>
       <c r="O8" t="n">
-        <v>568.6488510931351</v>
+        <v>568.6488510931352</v>
       </c>
       <c r="P8" t="n">
-        <v>485.3286382518518</v>
+        <v>485.3286382518519</v>
       </c>
       <c r="Q8" t="n">
         <v>364.4615953200662</v>
@@ -31549,7 +31549,7 @@
         <v>212.0045901728107</v>
       </c>
       <c r="S8" t="n">
-        <v>76.90772051122001</v>
+        <v>76.90772051122002</v>
       </c>
       <c r="T8" t="n">
         <v>14.77404482886958</v>
@@ -31592,13 +31592,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.805782038230096</v>
+        <v>1.805782038230097</v>
       </c>
       <c r="H9" t="n">
         <v>17.44005284290646</v>
       </c>
       <c r="I9" t="n">
-        <v>62.17275877239587</v>
+        <v>62.17275877239588</v>
       </c>
       <c r="J9" t="n">
         <v>170.6068021294496</v>
@@ -31607,13 +31607,13 @@
         <v>291.5941986908661</v>
       </c>
       <c r="L9" t="n">
-        <v>392.0843850990391</v>
+        <v>392.0843850990392</v>
       </c>
       <c r="M9" t="n">
         <v>457.5439839848801</v>
       </c>
       <c r="N9" t="n">
-        <v>469.6538117763442</v>
+        <v>469.6538117763443</v>
       </c>
       <c r="O9" t="n">
         <v>429.6414834555616</v>
@@ -31622,16 +31622,16 @@
         <v>344.8251683353594</v>
       </c>
       <c r="Q9" t="n">
-        <v>230.50649316074</v>
+        <v>230.5064931607401</v>
       </c>
       <c r="R9" t="n">
         <v>112.1168883034441</v>
       </c>
       <c r="S9" t="n">
-        <v>33.54160935045812</v>
+        <v>33.54160935045813</v>
       </c>
       <c r="T9" t="n">
-        <v>7.27856882953271</v>
+        <v>7.278568829532711</v>
       </c>
       <c r="U9" t="n">
         <v>0.118801449883559</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.513907000701964</v>
+        <v>1.513907000701965</v>
       </c>
       <c r="H10" t="n">
         <v>13.46000951533202</v>
       </c>
       <c r="I10" t="n">
-        <v>45.52731234838272</v>
+        <v>45.52731234838273</v>
       </c>
       <c r="J10" t="n">
         <v>107.0332249496289</v>
@@ -31689,10 +31689,10 @@
         <v>225.0766826316357</v>
       </c>
       <c r="M10" t="n">
-        <v>237.3118037554906</v>
+        <v>237.3118037554907</v>
       </c>
       <c r="N10" t="n">
-        <v>231.6690594801471</v>
+        <v>231.6690594801472</v>
       </c>
       <c r="O10" t="n">
         <v>213.983873153765</v>
@@ -31704,16 +31704,16 @@
         <v>126.7690671224163</v>
       </c>
       <c r="R10" t="n">
-        <v>68.07076386792649</v>
+        <v>68.0707638679265</v>
       </c>
       <c r="S10" t="n">
         <v>26.38327018496059</v>
       </c>
       <c r="T10" t="n">
-        <v>6.468511730272028</v>
+        <v>6.468511730272029</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08257674549283452</v>
+        <v>0.08257674549283453</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,10 +32324,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9642309107746</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>403.8524967138027</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>338.1920576279222</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>338.6542681503486</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34220,16 +34220,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359106</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.3216690912724</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,7 +34863,7 @@
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35021,16 +35021,16 @@
         <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>238.3094620181792</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="O6" t="n">
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649638</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>105.4026591042148</v>
+        <v>105.4026591042149</v>
       </c>
       <c r="K8" t="n">
-        <v>209.222291707805</v>
+        <v>209.2222917078051</v>
       </c>
       <c r="L8" t="n">
-        <v>296.8332604913117</v>
+        <v>296.8332604913118</v>
       </c>
       <c r="M8" t="n">
         <v>362.2735266944281</v>
@@ -35185,10 +35185,10 @@
         <v>372.795903605527</v>
       </c>
       <c r="O8" t="n">
-        <v>338.5506396714484</v>
+        <v>338.5506396714485</v>
       </c>
       <c r="P8" t="n">
-        <v>254.0956424965823</v>
+        <v>254.0956424965824</v>
       </c>
       <c r="Q8" t="n">
         <v>142.1559054456167</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>43.76917546278293</v>
+        <v>169.8602108031918</v>
       </c>
       <c r="K9" t="n">
-        <v>331.8105919363995</v>
+        <v>153.7527597165071</v>
       </c>
       <c r="L9" t="n">
-        <v>253.530005319165</v>
+        <v>305.4968021986488</v>
       </c>
       <c r="M9" t="n">
         <v>315.4099500628618</v>
@@ -35264,13 +35264,13 @@
         <v>338.312099693011</v>
       </c>
       <c r="O9" t="n">
-        <v>287.0452390111171</v>
+        <v>287.0452390111172</v>
       </c>
       <c r="P9" t="n">
         <v>210.8507609210292</v>
       </c>
       <c r="Q9" t="n">
-        <v>300.6020068105676</v>
+        <v>300.6020068105677</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>13.6740448329561</v>
+        <v>13.67404483295611</v>
       </c>
       <c r="K10" t="n">
         <v>153.6189760738544</v>
@@ -35337,10 +35337,10 @@
         <v>252.6667078919519</v>
       </c>
       <c r="M10" t="n">
-        <v>276.8956807173312</v>
+        <v>276.8956807173313</v>
       </c>
       <c r="N10" t="n">
-        <v>275.8012318593757</v>
+        <v>275.8012318593758</v>
       </c>
       <c r="O10" t="n">
         <v>238.5690010678047</v>
@@ -35349,7 +35349,7 @@
         <v>180.3787296043383</v>
       </c>
       <c r="Q10" t="n">
-        <v>40.60702387072193</v>
+        <v>40.60702387072195</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,19 +35495,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,10 +35972,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O18" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919382</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016747</v>
@@ -36996,19 +36996,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919382</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>272.5107846304694</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>196.0580237059039</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>196.0580237059041</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37868,16 +37868,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525773</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
